--- a/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -345,7 +345,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="13.41796875" customWidth="1"/>
+    <col min="2" max="2" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -158,7 +158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="186">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>

--- a/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -146,8 +146,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.41796875" customWidth="1"/>
-    <col min="2" max="2" width="18.41796875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
